--- a/Esercitazioni_AC/2023119-20260109/Testo_Es2_CEM_19_01_2023.xlsx
+++ b/Esercitazioni_AC/2023119-20260109/Testo_Es2_CEM_19_01_2023.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="1" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cache" sheetId="1" state="hidden" r:id="rId2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="147">
   <si>
     <t xml:space="preserve">Testo:</t>
   </si>
@@ -346,36 +346,30 @@
     <t xml:space="preserve">Cognome</t>
   </si>
   <si>
-    <t xml:space="preserve">Capacità = 4KB = 2^12</t>
-  </si>
-  <si>
     <t xml:space="preserve">Matricola</t>
   </si>
   <si>
-    <t xml:space="preserve">Linee = 16 = 2^4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blocchi = capacità /linee = 2^8</t>
-  </si>
-  <si>
     <t xml:space="preserve">a.i) Si completi la mappa della memoria con i due vettori A e B. (2 punti)</t>
   </si>
   <si>
-    <t xml:space="preserve">Set = blocchi / n_vie = 2^7</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dato</t>
   </si>
   <si>
     <t xml:space="preserve">Indirizzo</t>
   </si>
   <si>
+    <t xml:space="preserve">Capacità = 4 KiB = 2^12</t>
+  </si>
+  <si>
     <t xml:space="preserve">LSB</t>
   </si>
   <si>
     <t xml:space="preserve">MSB</t>
   </si>
   <si>
+    <t xml:space="preserve">Dim_linee = 16 bytes = 2^4 → 4 bit di offset</t>
+  </si>
+  <si>
     <t xml:space="preserve">A[0]</t>
   </si>
   <si>
@@ -385,6 +379,9 @@
     <t xml:space="preserve">0x8000_1003</t>
   </si>
   <si>
+    <t xml:space="preserve">n_vie = 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">A[767]</t>
   </si>
   <si>
@@ -394,6 +391,9 @@
     <t xml:space="preserve">0x8000_1BFF</t>
   </si>
   <si>
+    <t xml:space="preserve">n_blocchi = capacità/dim_linee = 2^8</t>
+  </si>
+  <si>
     <t xml:space="preserve">B[0]</t>
   </si>
   <si>
@@ -401,189 +401,6 @@
   </si>
   <si>
     <t xml:space="preserve">0x8000_3003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B[767]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x8000_3BFC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x8000_3BFF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a.ii) Specificare il numero e il valore dei bit di TAG e Set ID del primo ed ultimo elemento di ognuno dei vettori A e B. 
-(2 punti)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proprieta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vettore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># Bit TAG</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># Bit SetID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAG [0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0X1 0002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0X1 0006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SetID [0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0X00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tag [767]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0X1 0003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0X1 0007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SetID [767]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0X3F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a.iii) Quanta memoria occupano complessivamente i vettori A e B? È possibile che tutti e due i vettori si trovino contemporaneamente ed interamente in cache nello stesso momento? (1 punto)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># Bytes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RISPOSTA: No, la cache non ha abbastanza capacità.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b.i -part 1) Si mostri il contenuto della cache, lo stato MESI e il valore del bit LRU al termine della sequenza di esecuzione T0 (i=0), T1 (i=1), T0(i=2), T1 (i=3). (7 punti)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORE 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXEC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORE 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Istruzione: flw fa5,0(x11)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task = T0
-i = 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Istruzione: -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Via 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LRU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Via 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Set ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MESI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B[0...3]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Istruzione: flw fa4,0(x10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A[0...3]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Istruzione: fsw fa5,-8(x11)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task = T1
-i = 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WB+1M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b.i - part 2)  Si mostri il contenuto della cache, lo stato MESI e il valore del bit LRU al termine della sequenza di esecuzione T0 (i=0), T1 (i=1), T0(i=2), T1 (i=3). (7 punti)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task = T0
-i = 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M+WB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task = T1
-i = 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b.ii) Calcolare il numero di accessi, HIT, MISS, HIT rate, MISS rate e cicli di WB al termine dell’esecuzione dei due tasks. 
-(5 punti)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># Accessi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># HIT</t>
   </si>
   <si>
     <r>
@@ -594,7 +411,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1</t>
+      <t xml:space="preserve">n_set = </t>
     </r>
     <r>
       <rPr>
@@ -603,21 +420,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> X 768 X ½  = 384</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"># MISS</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2</t>
+      <t xml:space="preserve">n_blocchi</t>
     </r>
     <r>
       <rPr>
@@ -625,30 +428,175 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> X 768 X ½ = 768</t>
+      <t xml:space="preserve">/n_vie = 2^7 → 7 bit di set</t>
     </r>
   </si>
   <si>
+    <t xml:space="preserve">B[767]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x8000_3BFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x8000_3BFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32-4-7=21 bit di tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a.ii) Specificare il numero e il valore dei bit di TAG e Set ID del primo ed ultimo elemento di ognuno dei vettori A e B. 
+(2 punti)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proprieta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vettore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Bit TAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Bit SetID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAG [0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0X10 0002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0X10 0006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SetID [0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0X00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tag [767]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0X10 0003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0X10 0007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SetID [767]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0X3F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a.iii) Quanta memoria occupano complessivamente i vettori A e B? È possibile che tutti e due i vettori si trovino contemporaneamente ed interamente in cache nello stesso momento? (1 punto)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Bytes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RISPOSTA: Occupano entrambi 4*768 byte = 3072 byte = 3KiB. Una memoria dalla capacità di 4KiB  non è sufficiente. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">b.i -part 1) Si mostri il contenuto della cache, lo stato MESI e il valore del bit LRU al termine della sequenza di esecuzione T0 (i=0), T1 (i=1), T0(i=2), T1 (i=3). (7 punti)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORE 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORE 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Istruzione: flw fa5,0(x11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task = T0
+i = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Istruzione: -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Via 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LRU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Via 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Istruzione: flw fa4,0(x10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Istruzione: fsw fa5,-8(x11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task = T1
+i = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b.i - part 2)  Si mostri il contenuto della cache, lo stato MESI e il valore del bit LRU al termine della sequenza di esecuzione T0 (i=0), T1 (i=1), T0(i=2), T1 (i=3). (7 punti)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task = T0
+i = 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task = T1
+i = 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b.ii) Calcolare il numero di accessi, HIT, MISS, HIT rate, MISS rate e cicli di WB al termine dell’esecuzione dei due tasks. 
+(5 punti)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Accessi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># HIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># MISS</t>
+  </si>
+  <si>
     <t xml:space="preserve"># HIT rate [%]</t>
   </si>
   <si>
-    <t xml:space="preserve">0.33</t>
-  </si>
-  <si>
     <t xml:space="preserve"># MISS rate [%]</t>
   </si>
   <si>
-    <t xml:space="preserve">0.66</t>
-  </si>
-  <si>
     <t xml:space="preserve"># WB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 X 768 X ½  = 384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 X 768 X ½  - 1  = 383</t>
   </si>
   <si>
     <t xml:space="preserve">Motivare i valori ottenuti:</t>
@@ -741,6 +689,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1037,392 +986,384 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="95">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1512,330 +1453,330 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="20.16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14" t="s">
+      <c r="D7" s="14"/>
+      <c r="E7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="81" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8" s="1" t="n">
         <f aca="false">32-7-6</f>
         <v>19</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="I9" s="0" t="s">
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="I9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="J9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="0" t="s">
+      <c r="K9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L9" s="0" t="s">
+      <c r="L9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N9" s="0" t="s">
+      <c r="N9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O9" s="0" t="s">
+      <c r="O9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="P9" s="0" t="s">
+      <c r="P9" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="H10" s="23" t="s">
+      <c r="E10" s="23"/>
+      <c r="H10" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="I10" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="J10" s="24" t="s">
+      <c r="J10" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="K10" s="24" t="s">
+      <c r="K10" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="L10" s="24" t="s">
+      <c r="L10" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24" t="s">
+      <c r="M10" s="25"/>
+      <c r="N10" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="O10" s="24" t="s">
+      <c r="O10" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="P10" s="24" t="s">
+      <c r="P10" s="25" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="28" t="s">
+      <c r="E11" s="28"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="J11" s="28" t="s">
+      <c r="J11" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="K11" s="24" t="s">
+      <c r="K11" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="L11" s="24" t="s">
+      <c r="L11" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24" t="s">
+      <c r="M11" s="25"/>
+      <c r="N11" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="O11" s="24" t="s">
+      <c r="O11" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="P11" s="24" t="s">
+      <c r="P11" s="25" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="I12" s="24" t="s">
+      <c r="I12" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="J12" s="24" t="s">
+      <c r="J12" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="K12" s="24" t="s">
+      <c r="K12" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="L12" s="0" t="s">
+      <c r="L12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N12" s="24" t="s">
+      <c r="N12" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="O12" s="24" t="s">
+      <c r="O12" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="P12" s="24" t="s">
+      <c r="P12" s="25" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="I13" s="24" t="s">
+      <c r="I13" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="J13" s="24" t="s">
+      <c r="J13" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="K13" s="24" t="s">
+      <c r="K13" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="L13" s="0" t="s">
+      <c r="L13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N13" s="24" t="s">
+      <c r="N13" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="O13" s="0" t="s">
+      <c r="O13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="P13" s="24" t="s">
+      <c r="P13" s="25" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="I14" s="24" t="s">
+      <c r="I14" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="24" t="s">
+      <c r="J14" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="K14" s="29" t="s">
+      <c r="K14" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="L14" s="29" t="s">
+      <c r="L14" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="M14" s="24"/>
-      <c r="P14" s="24" t="s">
+      <c r="M14" s="25"/>
+      <c r="P14" s="25" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="I15" s="28" t="s">
+      <c r="I15" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="J15" s="28" t="s">
+      <c r="J15" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="N15" s="24" t="s">
+      <c r="N15" s="25" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1861,424 +1802,434 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A2:N35"/>
+  <dimension ref="A2:O35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="33" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="N4" s="0" t="s">
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="36" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="35" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="N5" s="0" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="40" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="N6" s="0" t="s">
+      <c r="B9" s="40"/>
+      <c r="C9" s="41" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="38" t="s">
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="O9" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="N7" s="0" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="41" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="39" t="s">
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="40" t="s">
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="O10" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="40" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="41" t="s">
+      <c r="B11" s="32"/>
+      <c r="C11" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="31" t="s">
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="42" t="s">
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="O11" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="43" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="33" t="s">
+      <c r="B12" s="34"/>
+      <c r="C12" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="44" t="s">
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="45" t="s">
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="O12" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="46" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="47" t="s">
+      <c r="B13" s="47"/>
+      <c r="C13" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="48" t="s">
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="O13" s="0" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="50" t="s">
+      <c r="A14" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="51" t="s">
+      <c r="B14" s="50"/>
+      <c r="C14" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="O14" s="0" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
+      <c r="A16" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="52"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="B18" s="53"/>
-      <c r="C18" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
+      <c r="A18" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="52"/>
+      <c r="C18" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="53"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="46" t="s">
+      <c r="A19" s="52"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="55" t="n">
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="47"/>
+      <c r="C20" s="54" t="n">
         <v>21</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55" t="n">
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54" t="n">
         <v>21</v>
       </c>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="56" t="n">
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="34"/>
+      <c r="C21" s="55" t="n">
         <v>7</v>
       </c>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56" t="n">
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55" t="n">
         <v>7</v>
       </c>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="57" t="s">
-        <v>103</v>
-      </c>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="58" t="s">
+      <c r="A22" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="33" t="s">
+      <c r="B22" s="47"/>
+      <c r="C22" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="56" t="s">
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56" t="s">
-        <v>106</v>
-      </c>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="34"/>
+      <c r="C23" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="59" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B24" s="59"/>
       <c r="C24" s="57" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D24" s="57"/>
       <c r="E24" s="57"/>
       <c r="F24" s="57"/>
       <c r="G24" s="57"/>
       <c r="H24" s="57" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I24" s="57"/>
       <c r="J24" s="57"/>
@@ -2286,19 +2237,19 @@
       <c r="L24" s="57"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="B25" s="35"/>
+      <c r="A25" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" s="36"/>
       <c r="C25" s="60" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D25" s="60"/>
       <c r="E25" s="60"/>
       <c r="F25" s="60"/>
       <c r="G25" s="60"/>
       <c r="H25" s="61" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I25" s="61"/>
       <c r="J25" s="61"/>
@@ -2306,22 +2257,22 @@
       <c r="L25" s="61"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="62" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B27" s="62"/>
       <c r="C27" s="62"/>
@@ -2351,34 +2302,34 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="63" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B29" s="63"/>
-      <c r="C29" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
+      <c r="C29" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="63"/>
       <c r="B30" s="63"/>
       <c r="C30" s="64" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D30" s="64"/>
       <c r="E30" s="64"/>
       <c r="F30" s="64"/>
       <c r="G30" s="64"/>
       <c r="H30" s="65" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I30" s="65"/>
       <c r="J30" s="65"/>
@@ -2386,28 +2337,24 @@
       <c r="L30" s="65"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="B31" s="35"/>
-      <c r="C31" s="42" t="n">
-        <v>3072</v>
-      </c>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="66" t="n">
-        <v>3072</v>
-      </c>
+      <c r="A31" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" s="36"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="66"/>
       <c r="I31" s="66"/>
       <c r="J31" s="66"/>
       <c r="K31" s="66"/>
       <c r="L31" s="66"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="67" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B32" s="67"/>
       <c r="C32" s="67"/>
@@ -2539,79 +2486,79 @@
   </sheetPr>
   <dimension ref="A2:R54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R28" activeCellId="0" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
+      <c r="B5" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="68" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C7" s="68"/>
       <c r="D7" s="68"/>
@@ -2651,7 +2598,7 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="69" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C9" s="69"/>
       <c r="D9" s="69"/>
@@ -2661,23 +2608,23 @@
       <c r="H9" s="69"/>
       <c r="I9" s="69"/>
       <c r="J9" s="65" t="s">
-        <v>117</v>
-      </c>
-      <c r="K9" s="53" t="s">
-        <v>118</v>
-      </c>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="53"/>
+        <v>119</v>
+      </c>
+      <c r="K9" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="70"/>
       <c r="C10" s="71" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D10" s="71"/>
       <c r="E10" s="71"/>
@@ -2686,11 +2633,11 @@
       <c r="H10" s="71"/>
       <c r="I10" s="71"/>
       <c r="J10" s="72" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K10" s="73"/>
       <c r="L10" s="71" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M10" s="71"/>
       <c r="N10" s="71"/>
@@ -2701,145 +2648,127 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="70"/>
-      <c r="C11" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
+      <c r="C11" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
       <c r="F11" s="64" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G11" s="74" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H11" s="74"/>
       <c r="I11" s="74"/>
       <c r="J11" s="72"/>
       <c r="K11" s="73"/>
       <c r="L11" s="73" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M11" s="73"/>
       <c r="N11" s="73"/>
       <c r="O11" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="P11" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="53"/>
+        <v>125</v>
+      </c>
+      <c r="P11" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="39" t="s">
-        <v>125</v>
+      <c r="B12" s="40" t="s">
+        <v>127</v>
       </c>
       <c r="C12" s="64" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="64" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E12" s="64" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F12" s="64"/>
       <c r="G12" s="64" t="s">
         <v>35</v>
       </c>
       <c r="H12" s="64" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I12" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="J12" s="72"/>
+      <c r="K12" s="42" t="s">
         <v>127</v>
-      </c>
-      <c r="J12" s="72"/>
-      <c r="K12" s="41" t="s">
-        <v>125</v>
       </c>
       <c r="L12" s="64" t="s">
         <v>35</v>
       </c>
       <c r="M12" s="64" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N12" s="64" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O12" s="73"/>
       <c r="P12" s="64" t="s">
         <v>35</v>
       </c>
       <c r="Q12" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="R12" s="40" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="R12" s="41" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>128</v>
-      </c>
+      <c r="A13" s="1"/>
       <c r="B13" s="75" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" s="77" t="s">
-        <v>129</v>
-      </c>
-      <c r="E13" s="78" t="s">
-        <v>130</v>
-      </c>
-      <c r="F13" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="78" t="s">
-        <v>131</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="77"/>
       <c r="J13" s="72"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="77"/>
-      <c r="N13" s="78" t="s">
-        <v>131</v>
-      </c>
-      <c r="O13" s="79" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" s="77"/>
-      <c r="Q13" s="77"/>
-      <c r="R13" s="81" t="s">
-        <v>131</v>
-      </c>
+      <c r="K13" s="79"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="78"/>
+      <c r="P13" s="76"/>
+      <c r="Q13" s="76"/>
+      <c r="R13" s="80"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="74"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="83"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="82"/>
       <c r="J14" s="72"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="85"/>
-      <c r="M14" s="85"/>
-      <c r="N14" s="86"/>
-      <c r="O14" s="87"/>
-      <c r="P14" s="85"/>
-      <c r="Q14" s="85"/>
-      <c r="R14" s="36"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="85"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="84"/>
+      <c r="Q14" s="84"/>
+      <c r="R14" s="37"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="70"/>
       <c r="C15" s="71" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D15" s="71"/>
       <c r="E15" s="71"/>
@@ -2850,7 +2779,7 @@
       <c r="J15" s="72"/>
       <c r="K15" s="73"/>
       <c r="L15" s="71" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M15" s="71"/>
       <c r="N15" s="71"/>
@@ -2861,149 +2790,127 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="70"/>
-      <c r="C16" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
+      <c r="C16" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
       <c r="F16" s="64" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G16" s="74" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H16" s="74"/>
       <c r="I16" s="74"/>
       <c r="J16" s="72"/>
       <c r="K16" s="73"/>
       <c r="L16" s="73" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M16" s="73"/>
       <c r="N16" s="73"/>
       <c r="O16" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="P16" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q16" s="53"/>
-      <c r="R16" s="53"/>
+        <v>125</v>
+      </c>
+      <c r="P16" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="39" t="s">
-        <v>125</v>
+      <c r="B17" s="40" t="s">
+        <v>127</v>
       </c>
       <c r="C17" s="64" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="64" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E17" s="64" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F17" s="64"/>
       <c r="G17" s="64" t="s">
         <v>35</v>
       </c>
       <c r="H17" s="64" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I17" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="J17" s="72"/>
+      <c r="K17" s="42" t="s">
         <v>127</v>
-      </c>
-      <c r="J17" s="72"/>
-      <c r="K17" s="41" t="s">
-        <v>125</v>
       </c>
       <c r="L17" s="64" t="s">
         <v>35</v>
       </c>
       <c r="M17" s="64" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N17" s="64" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O17" s="73"/>
       <c r="P17" s="64" t="s">
         <v>35</v>
       </c>
       <c r="Q17" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="R17" s="40" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="R17" s="41" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>128</v>
-      </c>
+      <c r="A18" s="1"/>
       <c r="B18" s="75" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" s="77" t="s">
-        <v>129</v>
-      </c>
-      <c r="E18" s="78" t="s">
-        <v>130</v>
-      </c>
-      <c r="F18" s="79" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="76" t="s">
-        <v>103</v>
-      </c>
-      <c r="H18" s="77" t="s">
-        <v>133</v>
-      </c>
-      <c r="I18" s="78" t="s">
-        <v>130</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="77"/>
       <c r="J18" s="72"/>
-      <c r="K18" s="80"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="77"/>
-      <c r="N18" s="78" t="s">
-        <v>131</v>
-      </c>
-      <c r="O18" s="79" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" s="77"/>
-      <c r="Q18" s="77"/>
-      <c r="R18" s="81" t="s">
-        <v>131</v>
-      </c>
+      <c r="K18" s="79"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="77"/>
+      <c r="O18" s="78"/>
+      <c r="P18" s="76"/>
+      <c r="Q18" s="76"/>
+      <c r="R18" s="80"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="74"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="83"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="82"/>
       <c r="J19" s="72"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="85"/>
-      <c r="N19" s="86"/>
-      <c r="O19" s="87"/>
-      <c r="P19" s="85"/>
-      <c r="Q19" s="85"/>
-      <c r="R19" s="36"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="84"/>
+      <c r="M19" s="84"/>
+      <c r="N19" s="85"/>
+      <c r="O19" s="86"/>
+      <c r="P19" s="84"/>
+      <c r="Q19" s="84"/>
+      <c r="R19" s="37"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="70"/>
       <c r="C20" s="71" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D20" s="71"/>
       <c r="E20" s="71"/>
@@ -3014,7 +2921,7 @@
       <c r="J20" s="72"/>
       <c r="K20" s="73"/>
       <c r="L20" s="71" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M20" s="71"/>
       <c r="N20" s="71"/>
@@ -3025,149 +2932,127 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="70"/>
-      <c r="C21" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
+      <c r="C21" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
       <c r="F21" s="64" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G21" s="74" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H21" s="74"/>
       <c r="I21" s="74"/>
       <c r="J21" s="72"/>
       <c r="K21" s="73"/>
       <c r="L21" s="73" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M21" s="73"/>
       <c r="N21" s="73"/>
       <c r="O21" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="P21" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q21" s="53"/>
-      <c r="R21" s="53"/>
+        <v>125</v>
+      </c>
+      <c r="P21" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="39" t="s">
-        <v>125</v>
+      <c r="B22" s="40" t="s">
+        <v>127</v>
       </c>
       <c r="C22" s="64" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="64" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E22" s="64" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F22" s="64"/>
       <c r="G22" s="64" t="s">
         <v>35</v>
       </c>
       <c r="H22" s="64" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I22" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="J22" s="72"/>
+      <c r="K22" s="42" t="s">
         <v>127</v>
-      </c>
-      <c r="J22" s="72"/>
-      <c r="K22" s="41" t="s">
-        <v>125</v>
       </c>
       <c r="L22" s="64" t="s">
         <v>35</v>
       </c>
       <c r="M22" s="64" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N22" s="64" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O22" s="73"/>
       <c r="P22" s="64" t="s">
         <v>35</v>
       </c>
       <c r="Q22" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="R22" s="40" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="R22" s="41" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>135</v>
-      </c>
+      <c r="A23" s="1"/>
       <c r="B23" s="75" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="D23" s="77" t="s">
-        <v>129</v>
-      </c>
-      <c r="E23" s="78" t="s">
-        <v>136</v>
-      </c>
-      <c r="F23" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" s="76" t="s">
-        <v>103</v>
-      </c>
-      <c r="H23" s="77" t="s">
-        <v>133</v>
-      </c>
-      <c r="I23" s="78" t="s">
-        <v>130</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="77"/>
       <c r="J23" s="72"/>
-      <c r="K23" s="80"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="77"/>
-      <c r="N23" s="78" t="s">
-        <v>131</v>
-      </c>
-      <c r="O23" s="79" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" s="77"/>
-      <c r="Q23" s="77"/>
-      <c r="R23" s="81" t="s">
-        <v>131</v>
-      </c>
+      <c r="K23" s="79"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="77"/>
+      <c r="O23" s="78"/>
+      <c r="P23" s="76"/>
+      <c r="Q23" s="76"/>
+      <c r="R23" s="80"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="74"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="86"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="85"/>
       <c r="J24" s="72"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="85"/>
-      <c r="M24" s="85"/>
-      <c r="N24" s="86"/>
-      <c r="O24" s="87"/>
-      <c r="P24" s="85"/>
-      <c r="Q24" s="85"/>
-      <c r="R24" s="36"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="84"/>
+      <c r="M24" s="84"/>
+      <c r="N24" s="85"/>
+      <c r="O24" s="86"/>
+      <c r="P24" s="84"/>
+      <c r="Q24" s="84"/>
+      <c r="R24" s="37"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="70"/>
       <c r="C25" s="71" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D25" s="71"/>
       <c r="E25" s="71"/>
@@ -3176,11 +3061,11 @@
       <c r="H25" s="71"/>
       <c r="I25" s="71"/>
       <c r="J25" s="72" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="K25" s="73"/>
       <c r="L25" s="71" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M25" s="71"/>
       <c r="N25" s="71"/>
@@ -3191,155 +3076,129 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="70"/>
-      <c r="C26" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
+      <c r="C26" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
       <c r="F26" s="64" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G26" s="74" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H26" s="74"/>
       <c r="I26" s="74"/>
       <c r="J26" s="72"/>
       <c r="K26" s="73"/>
       <c r="L26" s="73" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M26" s="73"/>
       <c r="N26" s="73"/>
       <c r="O26" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="P26" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q26" s="53"/>
-      <c r="R26" s="53"/>
+        <v>125</v>
+      </c>
+      <c r="P26" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q26" s="52"/>
+      <c r="R26" s="52"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="39" t="s">
-        <v>125</v>
+      <c r="B27" s="40" t="s">
+        <v>127</v>
       </c>
       <c r="C27" s="64" t="s">
         <v>35</v>
       </c>
       <c r="D27" s="64" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E27" s="64" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F27" s="64"/>
       <c r="G27" s="64" t="s">
         <v>35</v>
       </c>
       <c r="H27" s="64" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I27" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="J27" s="72"/>
+      <c r="K27" s="42" t="s">
         <v>127</v>
-      </c>
-      <c r="J27" s="72"/>
-      <c r="K27" s="41" t="s">
-        <v>125</v>
       </c>
       <c r="L27" s="64" t="s">
         <v>35</v>
       </c>
       <c r="M27" s="64" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N27" s="64" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O27" s="73"/>
       <c r="P27" s="64" t="s">
         <v>35</v>
       </c>
       <c r="Q27" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="R27" s="40" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="R27" s="41" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>138</v>
-      </c>
+      <c r="A28" s="1"/>
       <c r="B28" s="75" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="D28" s="77" t="s">
-        <v>129</v>
-      </c>
-      <c r="E28" s="78" t="s">
-        <v>139</v>
-      </c>
-      <c r="F28" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" s="76" t="s">
-        <v>103</v>
-      </c>
-      <c r="H28" s="77" t="s">
-        <v>133</v>
-      </c>
-      <c r="I28" s="78" t="s">
-        <v>130</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="77"/>
       <c r="J28" s="72"/>
       <c r="K28" s="75" t="s">
-        <v>106</v>
-      </c>
-      <c r="L28" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="M28" s="77" t="s">
-        <v>129</v>
-      </c>
-      <c r="N28" s="78" t="s">
-        <v>139</v>
-      </c>
-      <c r="O28" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="P28" s="77"/>
-      <c r="Q28" s="77"/>
-      <c r="R28" s="78" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>108</v>
+      </c>
+      <c r="L28" s="76"/>
+      <c r="M28" s="76"/>
+      <c r="N28" s="77"/>
+      <c r="O28" s="78"/>
+      <c r="P28" s="76"/>
+      <c r="Q28" s="76"/>
+      <c r="R28" s="77"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="74"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="82"/>
-      <c r="I29" s="83"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="82"/>
       <c r="J29" s="72"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="85"/>
-      <c r="M29" s="85"/>
-      <c r="N29" s="86"/>
-      <c r="O29" s="87"/>
-      <c r="P29" s="85"/>
-      <c r="Q29" s="85"/>
-      <c r="R29" s="36"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="84"/>
+      <c r="M29" s="84"/>
+      <c r="N29" s="85"/>
+      <c r="O29" s="86"/>
+      <c r="P29" s="84"/>
+      <c r="Q29" s="84"/>
+      <c r="R29" s="37"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="70"/>
       <c r="C30" s="71" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D30" s="71"/>
       <c r="E30" s="71"/>
@@ -3350,7 +3209,7 @@
       <c r="J30" s="72"/>
       <c r="K30" s="73"/>
       <c r="L30" s="71" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M30" s="71"/>
       <c r="N30" s="71"/>
@@ -3361,159 +3220,129 @@
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="70"/>
-      <c r="C31" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
+      <c r="C31" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
       <c r="F31" s="64" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G31" s="74" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H31" s="74"/>
       <c r="I31" s="74"/>
       <c r="J31" s="72"/>
       <c r="K31" s="73"/>
       <c r="L31" s="73" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M31" s="73"/>
       <c r="N31" s="73"/>
       <c r="O31" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="P31" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="53"/>
+        <v>125</v>
+      </c>
+      <c r="P31" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="52"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="39" t="s">
-        <v>125</v>
+      <c r="B32" s="40" t="s">
+        <v>127</v>
       </c>
       <c r="C32" s="64" t="s">
         <v>35</v>
       </c>
       <c r="D32" s="64" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E32" s="64" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F32" s="64"/>
       <c r="G32" s="64" t="s">
         <v>35</v>
       </c>
       <c r="H32" s="64" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I32" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="J32" s="72"/>
+      <c r="K32" s="42" t="s">
         <v>127</v>
-      </c>
-      <c r="J32" s="72"/>
-      <c r="K32" s="41" t="s">
-        <v>125</v>
       </c>
       <c r="L32" s="64" t="s">
         <v>35</v>
       </c>
       <c r="M32" s="64" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N32" s="64" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O32" s="73"/>
       <c r="P32" s="64" t="s">
         <v>35</v>
       </c>
       <c r="Q32" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="R32" s="40" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="R32" s="41" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>128</v>
-      </c>
+      <c r="A33" s="1"/>
       <c r="B33" s="75" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="D33" s="77" t="s">
-        <v>129</v>
-      </c>
-      <c r="E33" s="78" t="s">
-        <v>139</v>
-      </c>
-      <c r="F33" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="G33" s="76" t="s">
-        <v>103</v>
-      </c>
-      <c r="H33" s="77" t="s">
-        <v>133</v>
-      </c>
-      <c r="I33" s="78" t="s">
-        <v>139</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="77"/>
       <c r="J33" s="72"/>
       <c r="K33" s="75" t="s">
-        <v>106</v>
-      </c>
-      <c r="L33" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="M33" s="77" t="s">
-        <v>129</v>
-      </c>
-      <c r="N33" s="78" t="s">
-        <v>139</v>
-      </c>
-      <c r="O33" s="79" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" s="76" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q33" s="77" t="s">
-        <v>133</v>
-      </c>
-      <c r="R33" s="78" t="s">
-        <v>139</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="L33" s="76"/>
+      <c r="M33" s="76"/>
+      <c r="N33" s="77"/>
+      <c r="O33" s="78"/>
+      <c r="P33" s="76"/>
+      <c r="Q33" s="76"/>
+      <c r="R33" s="77"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="74"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="82"/>
-      <c r="H34" s="82"/>
-      <c r="I34" s="83"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="81"/>
+      <c r="H34" s="81"/>
+      <c r="I34" s="82"/>
       <c r="J34" s="72"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="85"/>
-      <c r="M34" s="85"/>
-      <c r="N34" s="86"/>
-      <c r="O34" s="87"/>
-      <c r="P34" s="85"/>
-      <c r="Q34" s="85"/>
-      <c r="R34" s="36"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="84"/>
+      <c r="M34" s="84"/>
+      <c r="N34" s="85"/>
+      <c r="O34" s="86"/>
+      <c r="P34" s="84"/>
+      <c r="Q34" s="84"/>
+      <c r="R34" s="37"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="70"/>
       <c r="C35" s="71" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D35" s="71"/>
       <c r="E35" s="71"/>
@@ -3524,7 +3353,7 @@
       <c r="J35" s="72"/>
       <c r="K35" s="73"/>
       <c r="L35" s="71" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M35" s="71"/>
       <c r="N35" s="71"/>
@@ -3535,154 +3364,124 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="70"/>
-      <c r="C36" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
+      <c r="C36" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
       <c r="F36" s="64" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G36" s="74" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H36" s="74"/>
       <c r="I36" s="74"/>
       <c r="J36" s="72"/>
       <c r="K36" s="73"/>
       <c r="L36" s="73" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M36" s="73"/>
       <c r="N36" s="73"/>
       <c r="O36" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="P36" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q36" s="53"/>
-      <c r="R36" s="53"/>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="39" t="s">
         <v>125</v>
+      </c>
+      <c r="P36" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q36" s="52"/>
+      <c r="R36" s="52"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="40" t="s">
+        <v>127</v>
       </c>
       <c r="C37" s="64" t="s">
         <v>35</v>
       </c>
       <c r="D37" s="64" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E37" s="64" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F37" s="64"/>
       <c r="G37" s="64" t="s">
         <v>35</v>
       </c>
       <c r="H37" s="64" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I37" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="J37" s="72"/>
+      <c r="K37" s="42" t="s">
         <v>127</v>
-      </c>
-      <c r="J37" s="72"/>
-      <c r="K37" s="41" t="s">
-        <v>125</v>
       </c>
       <c r="L37" s="64" t="s">
         <v>35</v>
       </c>
       <c r="M37" s="64" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N37" s="64" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O37" s="73"/>
       <c r="P37" s="64" t="s">
         <v>35</v>
       </c>
       <c r="Q37" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="R37" s="40" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="R37" s="41" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>135</v>
-      </c>
+      <c r="A38" s="1"/>
       <c r="B38" s="75" t="s">
-        <v>106</v>
-      </c>
-      <c r="C38" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="D38" s="77" t="s">
-        <v>129</v>
-      </c>
-      <c r="E38" s="78" t="s">
-        <v>131</v>
-      </c>
-      <c r="F38" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="G38" s="76" t="s">
-        <v>103</v>
-      </c>
-      <c r="H38" s="77" t="s">
-        <v>133</v>
-      </c>
-      <c r="I38" s="78" t="s">
-        <v>139</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C38" s="76"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="76"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="77"/>
       <c r="J38" s="72"/>
       <c r="K38" s="75" t="s">
-        <v>106</v>
-      </c>
-      <c r="L38" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="M38" s="77" t="s">
-        <v>129</v>
-      </c>
-      <c r="N38" s="78" t="s">
-        <v>136</v>
-      </c>
-      <c r="O38" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="P38" s="76" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q38" s="77" t="s">
-        <v>133</v>
-      </c>
-      <c r="R38" s="78" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>108</v>
+      </c>
+      <c r="L38" s="76"/>
+      <c r="M38" s="76"/>
+      <c r="N38" s="77"/>
+      <c r="O38" s="78"/>
+      <c r="P38" s="76"/>
+      <c r="Q38" s="76"/>
+      <c r="R38" s="77"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="74"/>
-      <c r="C39" s="85"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="85"/>
-      <c r="H39" s="85"/>
-      <c r="I39" s="86"/>
+      <c r="C39" s="84"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="85"/>
+      <c r="F39" s="86"/>
+      <c r="G39" s="84"/>
+      <c r="H39" s="84"/>
+      <c r="I39" s="85"/>
       <c r="J39" s="72"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="85"/>
-      <c r="M39" s="85"/>
-      <c r="N39" s="86"/>
-      <c r="O39" s="87"/>
-      <c r="P39" s="85"/>
-      <c r="Q39" s="85"/>
-      <c r="R39" s="36"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="84"/>
+      <c r="M39" s="84"/>
+      <c r="N39" s="85"/>
+      <c r="O39" s="86"/>
+      <c r="P39" s="84"/>
+      <c r="Q39" s="84"/>
+      <c r="R39" s="37"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3779,80 +3578,80 @@
   </sheetPr>
   <dimension ref="A1:R53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O32" activeCellId="0" sqref="O32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
+      <c r="B5" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="68" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C7" s="68"/>
       <c r="D7" s="68"/>
@@ -3891,9 +3690,9 @@
       <c r="R8" s="68"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="53"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="71" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D9" s="71"/>
       <c r="E9" s="71"/>
@@ -3902,11 +3701,11 @@
       <c r="H9" s="71"/>
       <c r="I9" s="71"/>
       <c r="J9" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="K9" s="53"/>
+        <v>134</v>
+      </c>
+      <c r="K9" s="52"/>
       <c r="L9" s="71" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M9" s="71"/>
       <c r="N9" s="71"/>
@@ -3916,160 +3715,130 @@
       <c r="R9" s="71"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="53"/>
-      <c r="C10" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="G10" s="53" t="s">
+      <c r="B10" s="52"/>
+      <c r="C10" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="G10" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
       <c r="J10" s="72"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="P10" s="53" t="s">
+      <c r="K10" s="52"/>
+      <c r="L10" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="53"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="P10" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="39" t="s">
-        <v>125</v>
+      <c r="B11" s="40" t="s">
+        <v>127</v>
       </c>
       <c r="C11" s="64" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="64" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E11" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="F11" s="53"/>
+        <v>129</v>
+      </c>
+      <c r="F11" s="52"/>
       <c r="G11" s="64" t="s">
         <v>35</v>
       </c>
       <c r="H11" s="64" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I11" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11" s="72"/>
+      <c r="K11" s="42" t="s">
         <v>127</v>
-      </c>
-      <c r="J11" s="72"/>
-      <c r="K11" s="41" t="s">
-        <v>125</v>
       </c>
       <c r="L11" s="64" t="s">
         <v>35</v>
       </c>
       <c r="M11" s="64" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N11" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="O11" s="53"/>
+        <v>129</v>
+      </c>
+      <c r="O11" s="52"/>
       <c r="P11" s="64" t="s">
         <v>35</v>
       </c>
       <c r="Q11" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="R11" s="40" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="R11" s="41" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>142</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="75" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="77" t="s">
-        <v>129</v>
-      </c>
-      <c r="E12" s="78" t="s">
-        <v>131</v>
-      </c>
-      <c r="F12" s="79" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="H12" s="77" t="s">
-        <v>129</v>
-      </c>
-      <c r="I12" s="78" t="s">
-        <v>139</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="77"/>
       <c r="J12" s="72"/>
       <c r="K12" s="75" t="s">
-        <v>106</v>
-      </c>
-      <c r="L12" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="M12" s="77" t="s">
-        <v>129</v>
-      </c>
-      <c r="N12" s="78" t="s">
-        <v>139</v>
-      </c>
-      <c r="O12" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" s="76" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q12" s="77" t="s">
-        <v>133</v>
-      </c>
-      <c r="R12" s="78" t="s">
-        <v>139</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="78"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="77"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="74"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="83"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="82"/>
       <c r="J13" s="72"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="85"/>
-      <c r="M13" s="85"/>
-      <c r="N13" s="86"/>
-      <c r="O13" s="87"/>
-      <c r="P13" s="85"/>
-      <c r="Q13" s="85"/>
-      <c r="R13" s="36"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="84"/>
+      <c r="N13" s="85"/>
+      <c r="O13" s="86"/>
+      <c r="P13" s="84"/>
+      <c r="Q13" s="84"/>
+      <c r="R13" s="37"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="53"/>
+      <c r="B14" s="52"/>
       <c r="C14" s="71" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D14" s="71"/>
       <c r="E14" s="71"/>
@@ -4078,9 +3847,9 @@
       <c r="H14" s="71"/>
       <c r="I14" s="71"/>
       <c r="J14" s="72"/>
-      <c r="K14" s="53"/>
+      <c r="K14" s="52"/>
       <c r="L14" s="71" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M14" s="71"/>
       <c r="N14" s="71"/>
@@ -4090,160 +3859,130 @@
       <c r="R14" s="71"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="53"/>
-      <c r="C15" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="G15" s="53" t="s">
+      <c r="B15" s="52"/>
+      <c r="C15" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
       <c r="J15" s="72"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="P15" s="53" t="s">
+      <c r="K15" s="52"/>
+      <c r="L15" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="53"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="P15" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="39" t="s">
-        <v>125</v>
+      <c r="B16" s="40" t="s">
+        <v>127</v>
       </c>
       <c r="C16" s="64" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="64" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E16" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16" s="53"/>
+        <v>129</v>
+      </c>
+      <c r="F16" s="52"/>
       <c r="G16" s="64" t="s">
         <v>35</v>
       </c>
       <c r="H16" s="64" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I16" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="J16" s="72"/>
+      <c r="K16" s="42" t="s">
         <v>127</v>
-      </c>
-      <c r="J16" s="72"/>
-      <c r="K16" s="41" t="s">
-        <v>125</v>
       </c>
       <c r="L16" s="64" t="s">
         <v>35</v>
       </c>
       <c r="M16" s="64" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N16" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="O16" s="53"/>
+        <v>129</v>
+      </c>
+      <c r="O16" s="52"/>
       <c r="P16" s="64" t="s">
         <v>35</v>
       </c>
       <c r="Q16" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="R16" s="40" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="R16" s="41" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>136</v>
-      </c>
+      <c r="A17" s="1"/>
       <c r="B17" s="75" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="76" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" s="77" t="s">
-        <v>133</v>
-      </c>
-      <c r="E17" s="78" t="s">
-        <v>139</v>
-      </c>
-      <c r="F17" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="H17" s="77" t="s">
-        <v>129</v>
-      </c>
-      <c r="I17" s="78" t="s">
-        <v>139</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="77"/>
       <c r="J17" s="72"/>
       <c r="K17" s="75" t="s">
-        <v>106</v>
-      </c>
-      <c r="L17" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="M17" s="77" t="s">
-        <v>129</v>
-      </c>
-      <c r="N17" s="78" t="s">
-        <v>139</v>
-      </c>
-      <c r="O17" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" s="76" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q17" s="77" t="s">
-        <v>133</v>
-      </c>
-      <c r="R17" s="78" t="s">
-        <v>139</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="L17" s="76"/>
+      <c r="M17" s="76"/>
+      <c r="N17" s="77"/>
+      <c r="O17" s="78"/>
+      <c r="P17" s="76"/>
+      <c r="Q17" s="76"/>
+      <c r="R17" s="77"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="74"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="83"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="82"/>
       <c r="J18" s="72"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="85"/>
-      <c r="M18" s="85"/>
-      <c r="N18" s="86"/>
-      <c r="O18" s="87"/>
-      <c r="P18" s="85"/>
-      <c r="Q18" s="85"/>
-      <c r="R18" s="36"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="84"/>
+      <c r="N18" s="85"/>
+      <c r="O18" s="86"/>
+      <c r="P18" s="84"/>
+      <c r="Q18" s="84"/>
+      <c r="R18" s="37"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="53"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="71" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D19" s="71"/>
       <c r="E19" s="71"/>
@@ -4252,9 +3991,9 @@
       <c r="H19" s="71"/>
       <c r="I19" s="71"/>
       <c r="J19" s="72"/>
-      <c r="K19" s="53"/>
+      <c r="K19" s="52"/>
       <c r="L19" s="71" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M19" s="71"/>
       <c r="N19" s="71"/>
@@ -4264,160 +4003,130 @@
       <c r="R19" s="71"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="53"/>
-      <c r="C20" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="G20" s="53" t="s">
+      <c r="B20" s="52"/>
+      <c r="C20" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="G20" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
       <c r="J20" s="72"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="P20" s="53" t="s">
+      <c r="K20" s="52"/>
+      <c r="L20" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="Q20" s="53"/>
-      <c r="R20" s="53"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="P20" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="39" t="s">
-        <v>125</v>
+      <c r="B21" s="40" t="s">
+        <v>127</v>
       </c>
       <c r="C21" s="64" t="s">
         <v>35</v>
       </c>
       <c r="D21" s="64" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E21" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="F21" s="53"/>
+        <v>129</v>
+      </c>
+      <c r="F21" s="52"/>
       <c r="G21" s="64" t="s">
         <v>35</v>
       </c>
       <c r="H21" s="64" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I21" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="J21" s="72"/>
+      <c r="K21" s="42" t="s">
         <v>127</v>
-      </c>
-      <c r="J21" s="72"/>
-      <c r="K21" s="41" t="s">
-        <v>125</v>
       </c>
       <c r="L21" s="64" t="s">
         <v>35</v>
       </c>
       <c r="M21" s="64" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N21" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="O21" s="53"/>
+        <v>129</v>
+      </c>
+      <c r="O21" s="52"/>
       <c r="P21" s="64" t="s">
         <v>35</v>
       </c>
       <c r="Q21" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="R21" s="40" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="R21" s="41" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>143</v>
-      </c>
+      <c r="A22" s="1"/>
       <c r="B22" s="75" t="s">
-        <v>106</v>
-      </c>
-      <c r="C22" s="76" t="s">
-        <v>103</v>
-      </c>
-      <c r="D22" s="77" t="s">
-        <v>133</v>
-      </c>
-      <c r="E22" s="78" t="s">
-        <v>139</v>
-      </c>
-      <c r="F22" s="79" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="H22" s="77" t="s">
-        <v>129</v>
-      </c>
-      <c r="I22" s="78" t="s">
-        <v>136</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="77"/>
       <c r="J22" s="72"/>
       <c r="K22" s="75" t="s">
-        <v>106</v>
-      </c>
-      <c r="L22" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="M22" s="77" t="s">
-        <v>129</v>
-      </c>
-      <c r="N22" s="78" t="s">
-        <v>131</v>
-      </c>
-      <c r="O22" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" s="76" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q22" s="77" t="s">
-        <v>133</v>
-      </c>
-      <c r="R22" s="78" t="s">
-        <v>139</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="L22" s="76"/>
+      <c r="M22" s="76"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="78"/>
+      <c r="P22" s="76"/>
+      <c r="Q22" s="76"/>
+      <c r="R22" s="77"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="74"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="83"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="82"/>
       <c r="J23" s="72"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="85"/>
-      <c r="M23" s="85"/>
-      <c r="N23" s="86"/>
-      <c r="O23" s="87"/>
-      <c r="P23" s="85"/>
-      <c r="Q23" s="85"/>
-      <c r="R23" s="36"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="84"/>
+      <c r="M23" s="84"/>
+      <c r="N23" s="85"/>
+      <c r="O23" s="86"/>
+      <c r="P23" s="84"/>
+      <c r="Q23" s="84"/>
+      <c r="R23" s="37"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="53"/>
+      <c r="B24" s="52"/>
       <c r="C24" s="71" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D24" s="71"/>
       <c r="E24" s="71"/>
@@ -4426,11 +4135,11 @@
       <c r="H24" s="71"/>
       <c r="I24" s="71"/>
       <c r="J24" s="72" t="s">
-        <v>144</v>
-      </c>
-      <c r="K24" s="53"/>
+        <v>135</v>
+      </c>
+      <c r="K24" s="52"/>
       <c r="L24" s="71" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M24" s="71"/>
       <c r="N24" s="71"/>
@@ -4440,160 +4149,130 @@
       <c r="R24" s="71"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="53"/>
-      <c r="C25" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="G25" s="53" t="s">
+      <c r="B25" s="52"/>
+      <c r="C25" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="G25" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
       <c r="J25" s="72"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="P25" s="53" t="s">
+      <c r="K25" s="52"/>
+      <c r="L25" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="Q25" s="53"/>
-      <c r="R25" s="53"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="P25" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="52"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="39" t="s">
-        <v>125</v>
+      <c r="B26" s="40" t="s">
+        <v>127</v>
       </c>
       <c r="C26" s="64" t="s">
         <v>35</v>
       </c>
       <c r="D26" s="64" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E26" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="F26" s="53"/>
+        <v>129</v>
+      </c>
+      <c r="F26" s="52"/>
       <c r="G26" s="64" t="s">
         <v>35</v>
       </c>
       <c r="H26" s="64" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I26" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="J26" s="72"/>
+      <c r="K26" s="40" t="s">
         <v>127</v>
-      </c>
-      <c r="J26" s="72"/>
-      <c r="K26" s="39" t="s">
-        <v>125</v>
       </c>
       <c r="L26" s="64" t="s">
         <v>35</v>
       </c>
       <c r="M26" s="64" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N26" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="O26" s="53"/>
+        <v>129</v>
+      </c>
+      <c r="O26" s="52"/>
       <c r="P26" s="64" t="s">
         <v>35</v>
       </c>
       <c r="Q26" s="64" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="R26" s="64" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>142</v>
-      </c>
+      <c r="A27" s="1"/>
       <c r="B27" s="75" t="s">
-        <v>106</v>
-      </c>
-      <c r="C27" s="76" t="s">
-        <v>103</v>
-      </c>
-      <c r="D27" s="77" t="s">
-        <v>133</v>
-      </c>
-      <c r="E27" s="78" t="s">
-        <v>139</v>
-      </c>
-      <c r="F27" s="79" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="H27" s="77" t="s">
-        <v>129</v>
-      </c>
-      <c r="I27" s="78" t="s">
-        <v>139</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="77"/>
       <c r="J27" s="72"/>
       <c r="K27" s="75" t="s">
-        <v>106</v>
-      </c>
-      <c r="L27" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="M27" s="77" t="s">
-        <v>129</v>
-      </c>
-      <c r="N27" s="78" t="s">
-        <v>131</v>
-      </c>
-      <c r="O27" s="79" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q27" s="77" t="s">
-        <v>129</v>
-      </c>
-      <c r="R27" s="78" t="s">
-        <v>139</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="L27" s="76"/>
+      <c r="M27" s="76"/>
+      <c r="N27" s="77"/>
+      <c r="O27" s="78"/>
+      <c r="P27" s="76"/>
+      <c r="Q27" s="76"/>
+      <c r="R27" s="77"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="74"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="82"/>
-      <c r="I28" s="83"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="82"/>
       <c r="J28" s="72"/>
       <c r="K28" s="74"/>
-      <c r="L28" s="82"/>
-      <c r="M28" s="82"/>
-      <c r="N28" s="83"/>
-      <c r="O28" s="84"/>
-      <c r="P28" s="82"/>
-      <c r="Q28" s="82"/>
-      <c r="R28" s="83"/>
+      <c r="L28" s="81"/>
+      <c r="M28" s="81"/>
+      <c r="N28" s="82"/>
+      <c r="O28" s="83"/>
+      <c r="P28" s="81"/>
+      <c r="Q28" s="81"/>
+      <c r="R28" s="82"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="53"/>
+      <c r="B29" s="52"/>
       <c r="C29" s="71" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D29" s="71"/>
       <c r="E29" s="71"/>
@@ -4602,9 +4281,9 @@
       <c r="H29" s="71"/>
       <c r="I29" s="71"/>
       <c r="J29" s="72"/>
-      <c r="K29" s="53"/>
+      <c r="K29" s="52"/>
       <c r="L29" s="71" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M29" s="71"/>
       <c r="N29" s="71"/>
@@ -4614,160 +4293,130 @@
       <c r="R29" s="71"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="53"/>
-      <c r="C30" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="G30" s="53" t="s">
+      <c r="B30" s="52"/>
+      <c r="C30" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="G30" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
       <c r="J30" s="72"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="P30" s="53" t="s">
+      <c r="K30" s="52"/>
+      <c r="L30" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="Q30" s="53"/>
-      <c r="R30" s="53"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="P30" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="52"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="39" t="s">
-        <v>125</v>
+      <c r="B31" s="40" t="s">
+        <v>127</v>
       </c>
       <c r="C31" s="64" t="s">
         <v>35</v>
       </c>
       <c r="D31" s="64" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E31" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="F31" s="53"/>
+        <v>129</v>
+      </c>
+      <c r="F31" s="52"/>
       <c r="G31" s="64" t="s">
         <v>35</v>
       </c>
       <c r="H31" s="64" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I31" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="J31" s="72"/>
+      <c r="K31" s="40" t="s">
         <v>127</v>
-      </c>
-      <c r="J31" s="72"/>
-      <c r="K31" s="39" t="s">
-        <v>125</v>
       </c>
       <c r="L31" s="64" t="s">
         <v>35</v>
       </c>
       <c r="M31" s="64" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N31" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="O31" s="53"/>
+        <v>129</v>
+      </c>
+      <c r="O31" s="52"/>
       <c r="P31" s="64" t="s">
         <v>35</v>
       </c>
       <c r="Q31" s="64" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="R31" s="64" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>136</v>
-      </c>
+      <c r="A32" s="1"/>
       <c r="B32" s="75" t="s">
-        <v>106</v>
-      </c>
-      <c r="C32" s="76" t="s">
-        <v>103</v>
-      </c>
-      <c r="D32" s="77" t="s">
-        <v>133</v>
-      </c>
-      <c r="E32" s="78" t="s">
-        <v>139</v>
-      </c>
-      <c r="F32" s="79" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="H32" s="77" t="s">
-        <v>129</v>
-      </c>
-      <c r="I32" s="78" t="s">
-        <v>139</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="77"/>
       <c r="J32" s="72"/>
       <c r="K32" s="75" t="s">
-        <v>106</v>
-      </c>
-      <c r="L32" s="76" t="s">
-        <v>103</v>
-      </c>
-      <c r="M32" s="77" t="s">
-        <v>133</v>
-      </c>
-      <c r="N32" s="78" t="s">
-        <v>139</v>
-      </c>
-      <c r="O32" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="P32" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q32" s="77" t="s">
-        <v>129</v>
-      </c>
-      <c r="R32" s="78" t="s">
-        <v>139</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="L32" s="76"/>
+      <c r="M32" s="76"/>
+      <c r="N32" s="77"/>
+      <c r="O32" s="78"/>
+      <c r="P32" s="76"/>
+      <c r="Q32" s="76"/>
+      <c r="R32" s="77"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="74"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="83"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="82"/>
-      <c r="H33" s="82"/>
-      <c r="I33" s="83"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="83"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="82"/>
       <c r="J33" s="72"/>
       <c r="K33" s="74"/>
-      <c r="L33" s="82"/>
-      <c r="M33" s="82"/>
-      <c r="N33" s="83"/>
-      <c r="O33" s="84"/>
-      <c r="P33" s="82"/>
-      <c r="Q33" s="82"/>
-      <c r="R33" s="83"/>
+      <c r="L33" s="81"/>
+      <c r="M33" s="81"/>
+      <c r="N33" s="82"/>
+      <c r="O33" s="83"/>
+      <c r="P33" s="81"/>
+      <c r="Q33" s="81"/>
+      <c r="R33" s="82"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="53"/>
+      <c r="B34" s="52"/>
       <c r="C34" s="71" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D34" s="71"/>
       <c r="E34" s="71"/>
@@ -4776,9 +4425,9 @@
       <c r="H34" s="71"/>
       <c r="I34" s="71"/>
       <c r="J34" s="72"/>
-      <c r="K34" s="53"/>
+      <c r="K34" s="52"/>
       <c r="L34" s="71" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M34" s="71"/>
       <c r="N34" s="71"/>
@@ -4788,155 +4437,125 @@
       <c r="R34" s="71"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="53"/>
-      <c r="C35" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="G35" s="53" t="s">
+      <c r="B35" s="52"/>
+      <c r="C35" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="G35" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
       <c r="J35" s="72"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="M35" s="53"/>
-      <c r="N35" s="53"/>
-      <c r="O35" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="P35" s="53" t="s">
+      <c r="K35" s="52"/>
+      <c r="L35" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="Q35" s="53"/>
-      <c r="R35" s="53"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="52"/>
+      <c r="O35" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="P35" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q35" s="52"/>
+      <c r="R35" s="52"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="B36" s="39" t="s">
-        <v>125</v>
+      <c r="A36" s="1"/>
+      <c r="B36" s="40" t="s">
+        <v>127</v>
       </c>
       <c r="C36" s="64" t="s">
         <v>35</v>
       </c>
       <c r="D36" s="64" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E36" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="F36" s="53"/>
+        <v>129</v>
+      </c>
+      <c r="F36" s="52"/>
       <c r="G36" s="64" t="s">
         <v>35</v>
       </c>
       <c r="H36" s="64" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I36" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="J36" s="72"/>
+      <c r="K36" s="40" t="s">
         <v>127</v>
-      </c>
-      <c r="J36" s="72"/>
-      <c r="K36" s="39" t="s">
-        <v>125</v>
       </c>
       <c r="L36" s="64" t="s">
         <v>35</v>
       </c>
       <c r="M36" s="64" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N36" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="O36" s="53"/>
+        <v>129</v>
+      </c>
+      <c r="O36" s="52"/>
       <c r="P36" s="64" t="s">
         <v>35</v>
       </c>
       <c r="Q36" s="64" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="R36" s="64" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="75" t="s">
-        <v>106</v>
-      </c>
-      <c r="C37" s="76" t="s">
-        <v>103</v>
-      </c>
-      <c r="D37" s="77" t="s">
-        <v>133</v>
-      </c>
-      <c r="E37" s="78" t="s">
-        <v>139</v>
-      </c>
-      <c r="F37" s="79" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="H37" s="77" t="s">
-        <v>129</v>
-      </c>
-      <c r="I37" s="78" t="s">
-        <v>131</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="78"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="77"/>
       <c r="J37" s="72"/>
       <c r="K37" s="75" t="s">
-        <v>106</v>
-      </c>
-      <c r="L37" s="76" t="s">
-        <v>103</v>
-      </c>
-      <c r="M37" s="77" t="s">
-        <v>133</v>
-      </c>
-      <c r="N37" s="78" t="s">
-        <v>139</v>
-      </c>
-      <c r="O37" s="79" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q37" s="77" t="s">
-        <v>129</v>
-      </c>
-      <c r="R37" s="78" t="s">
-        <v>136</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="L37" s="76"/>
+      <c r="M37" s="76"/>
+      <c r="N37" s="77"/>
+      <c r="O37" s="78"/>
+      <c r="P37" s="76"/>
+      <c r="Q37" s="76"/>
+      <c r="R37" s="77"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="74"/>
-      <c r="C38" s="82"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="82"/>
-      <c r="H38" s="82"/>
-      <c r="I38" s="83"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="82"/>
       <c r="J38" s="72"/>
       <c r="K38" s="74"/>
-      <c r="L38" s="82"/>
-      <c r="M38" s="82"/>
-      <c r="N38" s="83"/>
-      <c r="O38" s="84"/>
-      <c r="P38" s="82"/>
-      <c r="Q38" s="82"/>
-      <c r="R38" s="83"/>
+      <c r="L38" s="81"/>
+      <c r="M38" s="81"/>
+      <c r="N38" s="82"/>
+      <c r="O38" s="83"/>
+      <c r="P38" s="81"/>
+      <c r="Q38" s="81"/>
+      <c r="R38" s="82"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5031,79 +4650,79 @@
   </sheetPr>
   <dimension ref="B2:M28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
+      <c r="B5" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="62" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C7" s="62"/>
       <c r="D7" s="62"/>
@@ -5132,330 +4751,306 @@
       <c r="M8" s="62"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="B9" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="42" t="n">
-        <v>1152</v>
-      </c>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="88" t="n">
-        <v>1152</v>
-      </c>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="88"/>
+      <c r="B11" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="32"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="87"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="47" t="s">
-        <v>151</v>
-      </c>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47" t="s">
-        <v>151</v>
-      </c>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
+      <c r="B12" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" s="34"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="88"/>
+      <c r="M12" s="88"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="89" t="s">
-        <v>153</v>
-      </c>
+      <c r="B13" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="34"/>
+      <c r="D13" s="89"/>
       <c r="E13" s="89"/>
       <c r="F13" s="89"/>
       <c r="G13" s="89"/>
       <c r="H13" s="89"/>
-      <c r="I13" s="89" t="s">
-        <v>153</v>
-      </c>
+      <c r="I13" s="89"/>
       <c r="J13" s="89"/>
       <c r="K13" s="89"/>
       <c r="L13" s="89"/>
       <c r="M13" s="89"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="90" t="s">
-        <v>155</v>
-      </c>
+      <c r="B14" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="34"/>
+      <c r="D14" s="90"/>
       <c r="E14" s="90"/>
       <c r="F14" s="90"/>
       <c r="G14" s="90"/>
       <c r="H14" s="90"/>
-      <c r="I14" s="91" t="s">
-        <v>155</v>
-      </c>
+      <c r="I14" s="91"/>
       <c r="J14" s="91"/>
       <c r="K14" s="91"/>
       <c r="L14" s="91"/>
       <c r="M14" s="91"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="92" t="s">
-        <v>157</v>
-      </c>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
+      <c r="B15" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="34"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="91"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="91"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="91"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="93" t="s">
-        <v>158</v>
-      </c>
-      <c r="C16" s="93"/>
-      <c r="D16" s="94" t="s">
-        <v>159</v>
-      </c>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="94"/>
-      <c r="I16" s="95" t="s">
-        <v>160</v>
-      </c>
-      <c r="J16" s="95"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="95"/>
+      <c r="B16" s="92" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="92"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="96" t="s">
-        <v>161</v>
-      </c>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="96"/>
+      <c r="B17" s="94" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="94"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="96"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="96"/>
-      <c r="M18" s="96"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="94"/>
+      <c r="M18" s="94"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="96"/>
-      <c r="C19" s="96"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="96"/>
-      <c r="M19" s="96"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="94"/>
+      <c r="M19" s="94"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="96"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="96"/>
-      <c r="M20" s="96"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="94"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="96"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="96"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="96"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="96"/>
-      <c r="K22" s="96"/>
-      <c r="L22" s="96"/>
-      <c r="M22" s="96"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="96"/>
-      <c r="C23" s="96"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="96"/>
-      <c r="J23" s="96"/>
-      <c r="K23" s="96"/>
-      <c r="L23" s="96"/>
-      <c r="M23" s="96"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="94"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="94"/>
+      <c r="L23" s="94"/>
+      <c r="M23" s="94"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="96"/>
-      <c r="C24" s="96"/>
-      <c r="D24" s="96"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="96"/>
-      <c r="H24" s="96"/>
-      <c r="I24" s="96"/>
-      <c r="J24" s="96"/>
-      <c r="K24" s="96"/>
-      <c r="L24" s="96"/>
-      <c r="M24" s="96"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="94"/>
+      <c r="L24" s="94"/>
+      <c r="M24" s="94"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="96"/>
-      <c r="C25" s="96"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="96"/>
-      <c r="J25" s="96"/>
-      <c r="K25" s="96"/>
-      <c r="L25" s="96"/>
-      <c r="M25" s="96"/>
+      <c r="B25" s="94"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="94"/>
+      <c r="L25" s="94"/>
+      <c r="M25" s="94"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="96"/>
-      <c r="C26" s="96"/>
-      <c r="D26" s="96"/>
-      <c r="E26" s="96"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="96"/>
-      <c r="H26" s="96"/>
-      <c r="I26" s="96"/>
-      <c r="J26" s="96"/>
-      <c r="K26" s="96"/>
-      <c r="L26" s="96"/>
-      <c r="M26" s="96"/>
+      <c r="B26" s="94"/>
+      <c r="C26" s="94"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="94"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="94"/>
+      <c r="L26" s="94"/>
+      <c r="M26" s="94"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="96"/>
-      <c r="C27" s="96"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="96"/>
-      <c r="H27" s="96"/>
-      <c r="I27" s="96"/>
-      <c r="J27" s="96"/>
-      <c r="K27" s="96"/>
-      <c r="L27" s="96"/>
-      <c r="M27" s="96"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="94"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="94"/>
+      <c r="L27" s="94"/>
+      <c r="M27" s="94"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="96"/>
-      <c r="C28" s="96"/>
-      <c r="D28" s="96"/>
-      <c r="E28" s="96"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="96"/>
-      <c r="H28" s="96"/>
-      <c r="I28" s="96"/>
-      <c r="J28" s="96"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="96"/>
-      <c r="M28" s="96"/>
+      <c r="B28" s="94"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="94"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="94"/>
+      <c r="L28" s="94"/>
+      <c r="M28" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="31">
